--- a/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
+++ b/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LFP_Module\K9HZ_LPF_V1.00_BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D594BB92-B954-4D8C-9C84-E4AECF7029DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D67881-0566-4922-9F20-E6D1BA20263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T41-WJS-10-band-LPF-filter" sheetId="1" r:id="rId1"/>
@@ -1257,7 +1257,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1358,22 +1358,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1427,11 +1418,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1884,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1899,26 +1891,26 @@
     <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4881,7 +4873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB19532-201D-4964-AA8F-E4D7A92471E4}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
@@ -4976,43 +4968,43 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="36">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="56">
         <v>0.17</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="4">
         <v>9</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="5">
         <v>2.1</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="5">
         <v>0.17</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="8">
         <v>0.1701</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="37">
         <v>5.8788947677830094E-4</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="5">
         <v>10</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="5">
         <v>10</v>
       </c>
-      <c r="L3" s="41">
+      <c r="L3" s="38">
         <v>50</v>
       </c>
-      <c r="M3" s="41">
+      <c r="M3" s="38">
         <v>54</v>
       </c>
     </row>
@@ -5026,10 +5018,10 @@
       <c r="C4" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="54">
         <v>9</v>
       </c>
       <c r="F4" s="16">
@@ -5041,7 +5033,7 @@
       <c r="H4" s="18">
         <v>0.1701</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="40">
         <v>-0.10523221634332745</v>
       </c>
       <c r="J4" s="16">
@@ -5050,51 +5042,51 @@
       <c r="K4" s="16">
         <v>20</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="41">
         <v>50</v>
       </c>
-      <c r="M4" s="44">
+      <c r="M4" s="41">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="45">
+      <c r="A5" s="42">
         <v>1</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="42">
         <v>0.30499999999999999</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="55">
         <v>8</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="42">
         <v>4.7</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="42">
         <v>0.30499999999999999</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="45">
         <v>0.30080000000000001</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="46">
         <v>-1.3962765957446747E-2</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="42">
         <v>9</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="42">
         <v>9</v>
       </c>
-      <c r="L5" s="50">
+      <c r="L5" s="47">
         <v>28</v>
       </c>
-      <c r="M5" s="50">
+      <c r="M5" s="47">
         <v>30</v>
       </c>
     </row>
@@ -5108,10 +5100,10 @@
       <c r="C6" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="54">
         <v>8</v>
       </c>
       <c r="F6" s="16">
@@ -5123,7 +5115,7 @@
       <c r="H6" s="18">
         <v>0.30080000000000001</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="40">
         <v>-0.11369680851063832</v>
       </c>
       <c r="J6" s="16">
@@ -5132,51 +5124,51 @@
       <c r="K6" s="16">
         <v>18</v>
       </c>
-      <c r="L6" s="52">
+      <c r="L6" s="49">
         <v>28</v>
       </c>
-      <c r="M6" s="52">
+      <c r="M6" s="49">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="45">
+      <c r="A7" s="42">
         <v>2</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="42">
         <v>0.33700000000000002</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="55">
         <v>8</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="42">
         <v>4.7</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="42">
         <v>0.33700000000000002</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="45">
         <v>0.30080000000000001</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="46">
         <v>-0.12034574468085109</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="42">
         <v>9</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="42">
         <v>18</v>
       </c>
-      <c r="L7" s="50">
+      <c r="L7" s="47">
         <v>24</v>
       </c>
-      <c r="M7" s="50">
+      <c r="M7" s="47">
         <v>24.5</v>
       </c>
     </row>
@@ -5190,10 +5182,10 @@
       <c r="C8" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="54">
         <v>9</v>
       </c>
       <c r="F8" s="16">
@@ -5205,7 +5197,7 @@
       <c r="H8" s="18">
         <v>0.38069999999999998</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="40">
         <v>0.1016548463356973</v>
       </c>
       <c r="J8" s="16">
@@ -5214,51 +5206,51 @@
       <c r="K8" s="16">
         <v>9</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="49">
         <v>24</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="49">
         <v>24.5</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="45">
+      <c r="A9" s="42">
         <v>1</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="42">
         <v>0.40600000000000003</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="55">
         <v>9</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="42">
         <v>4.7</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="42">
         <v>0.40600000000000003</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="45">
         <v>0.38069999999999998</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="46">
         <v>-6.6456527449435365E-2</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="42">
         <v>10</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="42">
         <v>10</v>
       </c>
-      <c r="L9" s="50">
+      <c r="L9" s="47">
         <v>21</v>
       </c>
-      <c r="M9" s="50">
+      <c r="M9" s="47">
         <v>21.5</v>
       </c>
     </row>
@@ -5272,10 +5264,10 @@
       <c r="C10" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="54">
         <v>10</v>
       </c>
       <c r="F10" s="16">
@@ -5287,7 +5279,7 @@
       <c r="H10" s="18">
         <v>0.47</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="40">
         <v>4.8936170212765882E-2</v>
       </c>
       <c r="J10" s="16">
@@ -5296,51 +5288,51 @@
       <c r="K10" s="16">
         <v>20</v>
       </c>
-      <c r="L10" s="52">
+      <c r="L10" s="49">
         <v>21</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="49">
         <v>21.5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="45">
+      <c r="A11" s="42">
         <v>1</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="42">
         <v>0.47099999999999997</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="55">
         <v>10</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="42">
         <v>4.7</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="42">
         <v>0.47099999999999997</v>
       </c>
-      <c r="H11" s="48">
+      <c r="H11" s="45">
         <v>0.47</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="46">
         <v>-2.1276595744680873E-3</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="42">
         <v>10</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="42">
         <v>10</v>
       </c>
-      <c r="L11" s="50">
+      <c r="L11" s="47">
         <v>18</v>
       </c>
-      <c r="M11" s="50">
+      <c r="M11" s="47">
         <v>18.5</v>
       </c>
     </row>
@@ -5354,10 +5346,10 @@
       <c r="C12" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="54">
         <v>11</v>
       </c>
       <c r="F12" s="16">
@@ -5369,7 +5361,7 @@
       <c r="H12" s="18">
         <v>0.56870000000000009</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="40">
         <v>8.739229822401981E-2</v>
       </c>
       <c r="J12" s="16">
@@ -5378,10 +5370,10 @@
       <c r="K12" s="16">
         <v>22</v>
       </c>
-      <c r="L12" s="52">
+      <c r="L12" s="49">
         <v>18</v>
       </c>
-      <c r="M12" s="52">
+      <c r="M12" s="49">
         <v>18.5</v>
       </c>
       <c r="N12" t="s">
@@ -5389,43 +5381,43 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="45">
+      <c r="A13" s="42">
         <v>1</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="42">
         <v>0.60799999999999998</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="58">
+      <c r="E13" s="55">
         <v>11</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="42">
         <v>4.7</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="42">
         <v>0.60799999999999998</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="45">
         <v>0.56870000000000009</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="46">
         <v>-6.9104976261649173E-2</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="42">
         <v>11</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="42">
         <v>11</v>
       </c>
-      <c r="L13" s="50">
+      <c r="L13" s="47">
         <v>14</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="47">
         <v>14.5</v>
       </c>
     </row>
@@ -5439,10 +5431,10 @@
       <c r="C14" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="54">
         <v>12</v>
       </c>
       <c r="F14" s="16">
@@ -5454,7 +5446,7 @@
       <c r="H14" s="18">
         <v>0.67680000000000007</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="40">
         <v>1.0047281323877109E-2</v>
       </c>
       <c r="J14" s="16">
@@ -5463,51 +5455,51 @@
       <c r="K14" s="16">
         <v>24</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="49">
         <v>14</v>
       </c>
-      <c r="M14" s="52">
+      <c r="M14" s="49">
         <v>14.5</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="45">
+      <c r="A15" s="42">
         <v>1</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="42">
         <v>0.84299999999999997</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="58">
+      <c r="E15" s="55">
         <v>13</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="42">
         <v>4.7</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="42">
         <v>0.84299999999999997</v>
       </c>
-      <c r="H15" s="48">
+      <c r="H15" s="45">
         <v>0.79430000000000012</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="46">
         <v>-6.1311846909228057E-2</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="42">
         <v>13</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="42">
         <v>13</v>
       </c>
-      <c r="L15" s="50">
+      <c r="L15" s="47">
         <v>10</v>
       </c>
-      <c r="M15" s="50">
+      <c r="M15" s="47">
         <v>10.3</v>
       </c>
     </row>
@@ -5521,10 +5513,10 @@
       <c r="C16" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="54">
         <v>14</v>
       </c>
       <c r="F16" s="16">
@@ -5536,7 +5528,7 @@
       <c r="H16" s="18">
         <v>0.92120000000000002</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="40">
         <v>-7.3816760746852235E-3</v>
       </c>
       <c r="J16" s="16">
@@ -5545,51 +5537,51 @@
       <c r="K16" s="16">
         <v>28</v>
       </c>
-      <c r="L16" s="52">
+      <c r="L16" s="49">
         <v>10</v>
       </c>
-      <c r="M16" s="52">
+      <c r="M16" s="49">
         <v>10.3</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="45">
+      <c r="A17" s="42">
         <v>1</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="42">
         <v>1.22</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="58">
+      <c r="E17" s="55">
         <v>16</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="42">
         <v>4.7</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="42">
         <v>1.22</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="45">
         <v>1.2032</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="46">
         <v>-1.3962765957446747E-2</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="42">
         <v>15</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="42">
         <v>15</v>
       </c>
-      <c r="L17" s="50">
+      <c r="L17" s="47">
         <v>7</v>
       </c>
-      <c r="M17" s="50">
+      <c r="M17" s="47">
         <v>7.3</v>
       </c>
     </row>
@@ -5603,10 +5595,10 @@
       <c r="C18" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="54">
         <v>17</v>
       </c>
       <c r="F18" s="16">
@@ -5618,7 +5610,7 @@
       <c r="H18" s="18">
         <v>1.3583000000000001</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="40">
         <v>1.3472723257012429E-2</v>
       </c>
       <c r="J18" s="16">
@@ -5627,51 +5619,51 @@
       <c r="K18" s="16">
         <v>32</v>
       </c>
-      <c r="L18" s="52">
+      <c r="L18" s="49">
         <v>7</v>
       </c>
-      <c r="M18" s="52">
+      <c r="M18" s="49">
         <v>7.3</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="45">
+      <c r="A19" s="42">
         <v>1</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="42">
         <v>1.6</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="55">
         <v>17</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="42">
         <v>5.7</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="42">
         <v>1.6</v>
       </c>
-      <c r="H19" s="48">
+      <c r="H19" s="45">
         <v>1.6473</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="46">
         <v>2.8713652643719965E-2</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="42">
         <v>16</v>
       </c>
-      <c r="K19" s="45">
+      <c r="K19" s="42">
         <v>16</v>
       </c>
-      <c r="L19" s="55">
+      <c r="L19" s="52">
         <v>5</v>
       </c>
-      <c r="M19" s="55">
+      <c r="M19" s="52">
         <v>5.5</v>
       </c>
     </row>
@@ -5688,7 +5680,7 @@
       <c r="D20" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="54">
         <v>18</v>
       </c>
       <c r="F20" s="16">
@@ -5700,7 +5692,7 @@
       <c r="H20" s="18">
         <v>1.8468</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="40">
         <v>4.7000216590859858E-2</v>
       </c>
       <c r="J20" s="16">
@@ -5709,51 +5701,51 @@
       <c r="K20" s="16">
         <v>34</v>
       </c>
-      <c r="L20" s="56">
+      <c r="L20" s="53">
         <v>5</v>
       </c>
-      <c r="M20" s="56">
+      <c r="M20" s="53">
         <v>5.5</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="45">
+      <c r="A21" s="42">
         <v>1</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="42">
         <v>2.4300000000000002</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="55">
         <v>21</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="42">
         <v>5.7</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="42">
         <v>2.4300000000000002</v>
       </c>
-      <c r="H21" s="48">
+      <c r="H21" s="45">
         <v>2.5137000000000005</v>
       </c>
-      <c r="I21" s="49">
+      <c r="I21" s="46">
         <v>3.3297529538131164E-2</v>
       </c>
-      <c r="J21" s="45">
+      <c r="J21" s="42">
         <v>19</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="42">
         <v>19</v>
       </c>
-      <c r="L21" s="55">
+      <c r="L21" s="52">
         <v>3.5</v>
       </c>
-      <c r="M21" s="55">
+      <c r="M21" s="52">
         <v>4</v>
       </c>
     </row>
@@ -5770,7 +5762,7 @@
       <c r="D22" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="54">
         <v>22</v>
       </c>
       <c r="F22" s="16">
@@ -5782,7 +5774,7 @@
       <c r="H22" s="18">
         <v>2.7588000000000004</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="40">
         <v>2.856314339567935E-2</v>
       </c>
       <c r="J22" s="16">
@@ -5791,51 +5783,51 @@
       <c r="K22" s="16">
         <v>40</v>
       </c>
-      <c r="L22" s="56">
+      <c r="L22" s="53">
         <v>3.5</v>
       </c>
-      <c r="M22" s="56">
+      <c r="M22" s="53">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="45">
+      <c r="A23" s="42">
         <v>1</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="42">
         <v>4.7300000000000004</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="55">
         <v>29</v>
       </c>
-      <c r="F23" s="45">
+      <c r="F23" s="42">
         <v>5.7</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="42">
         <v>4.7300000000000004</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H23" s="45">
         <v>4.7936999999999994</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I23" s="46">
         <v>1.3288274193211713E-2</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="42">
         <v>26</v>
       </c>
-      <c r="K23" s="45">
+      <c r="K23" s="42">
         <v>26</v>
       </c>
-      <c r="L23" s="55">
+      <c r="L23" s="52">
         <v>1.8</v>
       </c>
-      <c r="M23" s="55">
+      <c r="M23" s="52">
         <v>2</v>
       </c>
     </row>
@@ -5852,7 +5844,7 @@
       <c r="D24" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="54">
         <v>30</v>
       </c>
       <c r="F24" s="16">
@@ -5864,7 +5856,7 @@
       <c r="H24" s="18">
         <v>5.13</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="40">
         <v>-1.5594541910331399E-2</v>
       </c>
       <c r="J24" s="16">
@@ -5873,10 +5865,10 @@
       <c r="K24" s="16">
         <v>52</v>
       </c>
-      <c r="L24" s="56">
+      <c r="L24" s="53">
         <v>1.8</v>
       </c>
-      <c r="M24" s="56">
+      <c r="M24" s="53">
         <v>2</v>
       </c>
     </row>

--- a/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
+++ b/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D67881-0566-4922-9F20-E6D1BA20263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4350F8-8BE5-4DB6-8F2B-CB04D59683B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="190">
   <si>
     <t>Qty</t>
   </si>
@@ -527,40 +527,16 @@
     <t>13 Turns of #20 Wire on a T68-6 Core.</t>
   </si>
   <si>
-    <t>14 Turns of #20 Wire on a T68-6 Core.</t>
-  </si>
-  <si>
     <t>16 Turns of #20 Wire on a T68-6 Core.</t>
   </si>
   <si>
-    <t>17 Turns of #20 Wire on a T68-6 Core.</t>
-  </si>
-  <si>
-    <t>9 Turns of #20 Wire on a T68-17 Core.</t>
-  </si>
-  <si>
-    <t>10 Turns of #20 Wire on a T68-17 Core.</t>
-  </si>
-  <si>
-    <t>29 Turns of #20 Wire on a T68-2 Core.</t>
-  </si>
-  <si>
     <t>30 Turns of #20 Wire on a T68-2 Core.</t>
   </si>
   <si>
-    <t>8 Turns of #20 Wire on a T68-6 Core.</t>
-  </si>
-  <si>
     <t>17 Turns of #20 Wire on a T68-2 Core.</t>
   </si>
   <si>
-    <t>18 Turns of #20 Wire on a T68-2 Core.</t>
-  </si>
-  <si>
     <t>21 Turns of #20 Wire on a T68-2 Core.</t>
-  </si>
-  <si>
-    <t>22 Turns of #20 Wire on a T68-2 Core.</t>
   </si>
   <si>
     <t>T68-2 Cores</t>
@@ -668,7 +644,31 @@
     <t>High</t>
   </si>
   <si>
-    <t>x</t>
+    <t>8 Turns of #20 Wire on a T68-17 Core.</t>
+  </si>
+  <si>
+    <t>7 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>15 Turns of #20 Wire on a T68-6 Core.</t>
+  </si>
+  <si>
+    <t>16 Turns of #20 Wire on a T68-2 Core.</t>
+  </si>
+  <si>
+    <t>20 Turns of #20 Wire on a T68-2 Core.</t>
+  </si>
+  <si>
+    <t>28 Turns of #20 Wire on a T68-2 Core.</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ^ Basis measurements by KI3P</t>
   </si>
 </sst>
 </file>
@@ -843,7 +843,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1077,6 +1077,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -1257,7 +1263,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1424,6 +1430,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1877,7 +1886,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2006,7 +2015,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>126</v>
@@ -2292,7 +2301,7 @@
         <v>83</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -2305,11 +2314,8 @@
       <c r="C30" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G30" s="34" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -2322,11 +2328,8 @@
       <c r="C31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G31" s="34" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -2339,11 +2342,8 @@
       <c r="C32" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G32" s="34" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2356,11 +2356,8 @@
       <c r="C33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G33" s="34" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -2373,11 +2370,8 @@
       <c r="C34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G34" s="34" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -2390,11 +2384,8 @@
       <c r="C35" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G35" s="34" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -2407,11 +2398,8 @@
       <c r="C36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G36" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -2424,11 +2412,8 @@
       <c r="C37" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G37" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -2441,11 +2426,8 @@
       <c r="C38" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G38" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -2458,11 +2440,8 @@
       <c r="C39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G39" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2475,11 +2454,8 @@
       <c r="C40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G40" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2492,11 +2468,8 @@
       <c r="C41" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G41" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2509,11 +2482,8 @@
       <c r="C42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F42" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G42" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2526,11 +2496,8 @@
       <c r="C43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G43" s="34" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2543,11 +2510,8 @@
       <c r="C44" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F44" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G44" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2560,11 +2524,8 @@
       <c r="C45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F45" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G45" s="34" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2577,11 +2538,8 @@
       <c r="C46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F46" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G46" s="34" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2594,11 +2552,8 @@
       <c r="C47" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G47" s="34" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2611,11 +2566,8 @@
       <c r="C48" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F48" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G48" s="34" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2628,11 +2580,8 @@
       <c r="C49" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F49" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G49" s="34" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2645,11 +2594,8 @@
       <c r="C50" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="34" t="s">
-        <v>126</v>
-      </c>
       <c r="G50" s="34" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2658,16 +2604,16 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F51" s="34" t="s">
         <v>126</v>
       </c>
       <c r="G51" s="34" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -2676,13 +2622,13 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -2691,13 +2637,13 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -2705,13 +2651,13 @@
         <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2725,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21315881-8117-4FCF-A08E-B5E61CEF681B}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4871,10 +4817,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB19532-201D-4964-AA8F-E4D7A92471E4}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4894,7 +4840,7 @@
     <col min="13" max="13" width="6.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>137</v>
       </c>
@@ -4929,13 +4875,19 @@
         <v>156</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>130</v>
@@ -4961,13 +4913,19 @@
         <v>155</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5007,8 +4965,15 @@
       <c r="M3" s="38">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N3" s="5">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5">
+        <f>N3-E3</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -5016,7 +4981,7 @@
         <v>0.188</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>133</v>
@@ -5048,8 +5013,15 @@
       <c r="M4" s="41">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N4" s="16">
+        <v>8</v>
+      </c>
+      <c r="O4" s="16">
+        <f t="shared" ref="O4:O24" si="0">N4-E4</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="42">
         <v>1</v>
       </c>
@@ -5089,8 +5061,15 @@
       <c r="M5" s="47">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N5" s="5">
+        <v>7</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -5130,8 +5109,15 @@
       <c r="M6" s="49">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N6" s="16">
+        <v>7</v>
+      </c>
+      <c r="O6" s="16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="42">
         <v>2</v>
       </c>
@@ -5171,8 +5157,15 @@
       <c r="M7" s="47">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N7" s="5">
+        <v>7</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -5212,8 +5205,15 @@
       <c r="M8" s="49">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N8" s="16">
+        <v>7</v>
+      </c>
+      <c r="O8" s="48">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="42">
         <v>1</v>
       </c>
@@ -5253,8 +5253,15 @@
       <c r="M9" s="47">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N9" s="5">
+        <v>8</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -5262,7 +5269,7 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>132</v>
@@ -5294,8 +5301,15 @@
       <c r="M10" s="49">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N10" s="16">
+        <v>9</v>
+      </c>
+      <c r="O10" s="16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="42">
         <v>1</v>
       </c>
@@ -5335,8 +5349,15 @@
       <c r="M11" s="47">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N11" s="5">
+        <v>9</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>2</v>
       </c>
@@ -5344,7 +5365,7 @@
         <v>0.51900000000000002</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D12" s="48" t="s">
         <v>132</v>
@@ -5376,11 +5397,15 @@
       <c r="M12" s="49">
         <v>18.5</v>
       </c>
-      <c r="N12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N12" s="16">
+        <v>10</v>
+      </c>
+      <c r="O12" s="16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="42">
         <v>1</v>
       </c>
@@ -5420,8 +5445,15 @@
       <c r="M13" s="47">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N13" s="5">
+        <v>10</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>2</v>
       </c>
@@ -5429,7 +5461,7 @@
         <v>0.67</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D14" s="48" t="s">
         <v>132</v>
@@ -5461,8 +5493,15 @@
       <c r="M14" s="49">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N14" s="16">
+        <v>11</v>
+      </c>
+      <c r="O14" s="16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="42">
         <v>1</v>
       </c>
@@ -5502,8 +5541,15 @@
       <c r="M15" s="47">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N15" s="5">
+        <v>12</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>2</v>
       </c>
@@ -5543,8 +5589,15 @@
       <c r="M16" s="49">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N16" s="16">
+        <v>13</v>
+      </c>
+      <c r="O16" s="16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="42">
         <v>1</v>
       </c>
@@ -5584,8 +5637,15 @@
       <c r="M17" s="47">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N17" s="5">
+        <v>15</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>2</v>
       </c>
@@ -5625,8 +5685,15 @@
       <c r="M18" s="49">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N18" s="16">
+        <v>16</v>
+      </c>
+      <c r="O18" s="16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="42">
         <v>1</v>
       </c>
@@ -5666,8 +5733,15 @@
       <c r="M19" s="52">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N19" s="5">
+        <v>16</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>2</v>
       </c>
@@ -5707,8 +5781,15 @@
       <c r="M20" s="53">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N20" s="16">
+        <v>17</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="42">
         <v>1</v>
       </c>
@@ -5748,8 +5829,15 @@
       <c r="M21" s="52">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N21" s="5">
+        <v>20</v>
+      </c>
+      <c r="O21" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>2</v>
       </c>
@@ -5789,8 +5877,15 @@
       <c r="M22" s="53">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N22" s="16">
+        <v>21</v>
+      </c>
+      <c r="O22" s="16">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="42">
         <v>1</v>
       </c>
@@ -5830,8 +5925,15 @@
       <c r="M23" s="52">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N23" s="5">
+        <v>28</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>2</v>
       </c>
@@ -5871,11 +5973,18 @@
       <c r="M24" s="53">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N24" s="16">
+        <v>30</v>
+      </c>
+      <c r="O24" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>33</v>
       </c>
@@ -5885,8 +5994,11 @@
       <c r="L26" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="K27" s="5" t="s">
         <v>155</v>
       </c>

--- a/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
+++ b/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4350F8-8BE5-4DB6-8F2B-CB04D59683B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E376634-F0D4-4BB1-8171-9C1A6AB49645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T41-WJS-10-band-LPF-filter" sheetId="1" r:id="rId1"/>
@@ -1885,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4819,8 +4819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB19532-201D-4964-AA8F-E4D7A92471E4}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
+++ b/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E376634-F0D4-4BB1-8171-9C1A6AB49645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FFEB16-A814-4CE1-BBE0-9D4D3EFE0D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T41-WJS-10-band-LPF-filter" sheetId="1" r:id="rId1"/>
@@ -1885,7 +1885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -4819,7 +4819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB19532-201D-4964-AA8F-E4D7A92471E4}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>

--- a/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
+++ b/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FFEB16-A814-4CE1-BBE0-9D4D3EFE0D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E6A52D-5154-4E81-A71E-8A6CE74C1D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T41-WJS-10-band-LPF-filter" sheetId="1" r:id="rId1"/>
@@ -549,9 +549,6 @@
   </si>
   <si>
     <t>KitsAndParts.com T41 V012.6 LPF Kit</t>
-  </si>
-  <si>
-    <t>Feet #30 Transformer Wire</t>
   </si>
   <si>
     <t>For L3-L35</t>
@@ -669,6 +666,9 @@
   </si>
   <si>
     <t xml:space="preserve">        ^ Basis measurements by KI3P</t>
+  </si>
+  <si>
+    <t>Feet #20 Transformer Wire</t>
   </si>
 </sst>
 </file>
@@ -1885,22 +1885,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="5"/>
-    <col min="2" max="2" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="5"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>5</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>4</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>126</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>126</v>
@@ -2024,7 +2024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>4</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>6</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>2</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>2</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>2</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>2</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>1</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>24</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -2301,10 +2301,10 @@
         <v>83</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>2</v>
       </c>
@@ -2315,10 +2315,10 @@
         <v>85</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>1</v>
       </c>
@@ -2329,10 +2329,10 @@
         <v>87</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>2</v>
       </c>
@@ -2343,10 +2343,10 @@
         <v>89</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>2</v>
       </c>
@@ -2357,10 +2357,10 @@
         <v>91</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>1</v>
       </c>
@@ -2371,10 +2371,10 @@
         <v>93</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>1</v>
       </c>
@@ -2385,10 +2385,10 @@
         <v>95</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>2</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>1</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>2</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>1</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>2</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>1</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>2</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>1</v>
       </c>
@@ -2497,10 +2497,10 @@
         <v>111</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>2</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>1</v>
       </c>
@@ -2525,10 +2525,10 @@
         <v>115</v>
       </c>
       <c r="G45" s="34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>2</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>1</v>
       </c>
@@ -2553,10 +2553,10 @@
         <v>119</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>2</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>1</v>
       </c>
@@ -2581,10 +2581,10 @@
         <v>123</v>
       </c>
       <c r="G49" s="34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>2</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <f>A29+A30</f>
         <v>3</v>
@@ -2607,7 +2607,7 @@
         <v>169</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F51" s="34" t="s">
         <v>126</v>
@@ -2616,7 +2616,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <f>SUM(A31:A44)</f>
         <v>21</v>
@@ -2625,13 +2625,13 @@
         <v>168</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G52" s="34" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <f>A45+A46+A47+A48+A49+A50</f>
         <v>9</v>
@@ -2640,21 +2640,21 @@
         <v>167</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G53" s="34" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>38</v>
       </c>
       <c r="B54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="G54" s="34" t="s">
         <v>170</v>
@@ -2675,32 +2675,32 @@
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.54296875" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.453125" customWidth="1"/>
-    <col min="18" max="18" width="8.54296875" customWidth="1"/>
-    <col min="19" max="19" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.6328125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="8.54296875" style="5" customWidth="1"/>
-    <col min="24" max="24" width="8.7265625" style="5"/>
-    <col min="25" max="25" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.44140625" customWidth="1"/>
+    <col min="18" max="18" width="8.5546875" customWidth="1"/>
+    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="8.5546875" style="5" customWidth="1"/>
+    <col min="24" max="24" width="8.77734375" style="5"/>
+    <col min="25" max="25" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>137</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>130</v>
@@ -2835,7 +2835,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>2</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>2</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>2</v>
       </c>
@@ -4578,7 +4578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>2</v>
       </c>
@@ -4752,10 +4752,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f>SUM(A3:A24)</f>
         <v>33</v>
@@ -4787,7 +4787,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="Y27" s="5" t="s">
         <v>155</v>
       </c>
@@ -4808,7 +4808,7 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4823,24 +4823,24 @@
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.26953125" customWidth="1"/>
-    <col min="13" max="13" width="6.6328125" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.21875" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>137</v>
       </c>
@@ -4875,19 +4875,19 @@
         <v>156</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="N1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>130</v>
@@ -4913,10 +4913,10 @@
         <v>155</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>142</v>
@@ -4925,7 +4925,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>0.188</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>133</v>
@@ -5021,7 +5021,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="42">
         <v>1</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="42">
         <v>2</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="42">
         <v>1</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" s="48" t="s">
         <v>132</v>
@@ -5309,7 +5309,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="42">
         <v>1</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>2</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>0.51900000000000002</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" s="48" t="s">
         <v>132</v>
@@ -5405,7 +5405,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="42">
         <v>1</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>2</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>0.67</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D14" s="48" t="s">
         <v>132</v>
@@ -5501,7 +5501,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="42">
         <v>1</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>2</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="42">
         <v>1</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>2</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="42">
         <v>1</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>2</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="42">
         <v>1</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>2</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="42">
         <v>1</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>2</v>
       </c>
@@ -5981,10 +5981,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>33</v>
       </c>
@@ -5995,10 +5995,10 @@
         <v>38</v>
       </c>
       <c r="N26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K27" s="5" t="s">
         <v>155</v>
       </c>

--- a/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
+++ b/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E6A52D-5154-4E81-A71E-8A6CE74C1D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7736DE0-39D1-4D4A-931B-905A04EAF0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T41-WJS-10-band-LPF-filter" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
   </si>
   <si>
     <t>J17, J22</t>
-  </si>
-  <si>
-    <t>712-CONREVSMA001-G</t>
   </si>
   <si>
     <t>IDX2x5 Male Box Connector</t>
@@ -669,6 +666,9 @@
   </si>
   <si>
     <t>Feet #20 Transformer Wire</t>
+  </si>
+  <si>
+    <t>712-CONSMA001-G</t>
   </si>
 </sst>
 </file>
@@ -1885,22 +1885,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="5"/>
-    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="5"/>
+    <col min="2" max="2" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>5</v>
       </c>
@@ -1945,13 +1945,13 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>4</v>
       </c>
@@ -1959,13 +1959,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -2007,24 +2007,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>2</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>4</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>13</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>6</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>2</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>2</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>2</v>
       </c>
@@ -2259,405 +2259,405 @@
         <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>1</v>
       </c>
       <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="F27" t="s">
         <v>77</v>
       </c>
-      <c r="F27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>24</v>
       </c>
       <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="G28" t="s">
         <v>80</v>
       </c>
-      <c r="G28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="G29" s="34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>2</v>
       </c>
       <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="G30" s="34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>1</v>
       </c>
       <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G31" s="34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>2</v>
       </c>
       <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="G32" s="34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>2</v>
       </c>
       <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G33" s="34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>1</v>
       </c>
       <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="G34" s="34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G35" s="34" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <v>2</v>
       </c>
       <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G36" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="G37" s="34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>2</v>
       </c>
       <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G38" s="34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <v>1</v>
       </c>
       <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G39" s="34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>2</v>
       </c>
       <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="G40" s="34" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <v>1</v>
       </c>
       <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="G41" s="34" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>2</v>
       </c>
       <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="G42" s="34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <v>1</v>
       </c>
       <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="G43" s="34" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>2</v>
       </c>
       <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="G44" s="34" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <v>1</v>
       </c>
       <c r="B45" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="G45" s="34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>2</v>
       </c>
       <c r="B46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="G46" s="34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <v>1</v>
       </c>
       <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="G47" s="34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>2</v>
       </c>
       <c r="B48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="G48" s="34" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <v>1</v>
       </c>
       <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G49" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>2</v>
       </c>
       <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="G50" s="34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
         <f>A29+A30</f>
         <v>3</v>
       </c>
       <c r="B51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="G51" s="34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <f>SUM(A31:A44)</f>
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
         <f>A45+A46+A47+A48+A49+A50</f>
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2675,110 +2675,110 @@
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.44140625" customWidth="1"/>
-    <col min="18" max="18" width="8.5546875" customWidth="1"/>
-    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="5" customWidth="1"/>
-    <col min="23" max="23" width="8.5546875" style="5" customWidth="1"/>
-    <col min="24" max="24" width="8.77734375" style="5"/>
-    <col min="25" max="25" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.453125" customWidth="1"/>
+    <col min="18" max="18" width="8.54296875" customWidth="1"/>
+    <col min="19" max="19" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6328125" style="5" customWidth="1"/>
+    <col min="23" max="23" width="8.54296875" style="5" customWidth="1"/>
+    <col min="24" max="24" width="8.81640625" style="5"/>
+    <col min="25" max="25" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>133</v>
       </c>
       <c r="Q1" s="27"/>
       <c r="R1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="T1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="X1" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2813,29 +2813,29 @@
         <v>2.1</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S2" s="4"/>
       <c r="U2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Y2" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>0.17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="7">
         <v>50</v>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="Q3" s="27"/>
       <c r="R3" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S3" s="5">
         <v>9</v>
@@ -2925,7 +2925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0.188</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="7">
         <v>50</v>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="Q4" s="27"/>
       <c r="R4" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S4" s="5">
         <v>9</v>
@@ -3012,7 +3012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="7">
         <v>28</v>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="Q5" s="27"/>
       <c r="R5" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S5" s="5">
         <v>8</v>
@@ -3099,7 +3099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="7">
         <v>28</v>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="Q6" s="27"/>
       <c r="R6" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S6" s="5">
         <v>8</v>
@@ -3186,7 +3186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>0.33700000000000002</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="7">
         <v>24.89</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="Q7" s="27"/>
       <c r="R7" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S7" s="5">
         <v>8</v>
@@ -3273,7 +3273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="7">
         <v>24.89</v>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="Q8" s="27"/>
       <c r="R8" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S8" s="5">
         <v>9</v>
@@ -3360,7 +3360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="7">
         <v>21</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="Q9" s="27"/>
       <c r="R9" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S9" s="5">
         <v>9</v>
@@ -3447,7 +3447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="7">
         <v>21</v>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="Q10" s="27"/>
       <c r="R10" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S10" s="5">
         <v>10</v>
@@ -3534,7 +3534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>0.47099999999999997</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="7">
         <v>18.068000000000001</v>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="Q11" s="27"/>
       <c r="R11" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S11" s="5">
         <v>10</v>
@@ -3621,7 +3621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>0.51900000000000002</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="7">
         <v>18.068000000000001</v>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="Q12" s="27"/>
       <c r="R12" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S12" s="5">
         <v>11</v>
@@ -3708,7 +3708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>0.60799999999999998</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="7">
         <v>14</v>
@@ -3767,7 +3767,7 @@
       </c>
       <c r="Q13" s="27"/>
       <c r="R13" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S13" s="5">
         <v>11</v>
@@ -3795,7 +3795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>0.67</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="7">
         <v>14</v>
@@ -3854,7 +3854,7 @@
       </c>
       <c r="Q14" s="27"/>
       <c r="R14" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S14" s="5">
         <v>12</v>
@@ -3882,7 +3882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="7">
         <v>10.1</v>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="Q15" s="27"/>
       <c r="R15" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S15" s="5">
         <v>13</v>
@@ -3969,7 +3969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="7">
         <v>10.1</v>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="Q16" s="27"/>
       <c r="R16" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S16" s="5">
         <v>14</v>
@@ -4056,7 +4056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>1.22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="7">
         <v>7</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="Q17" s="27"/>
       <c r="R17" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S17" s="5">
         <v>16</v>
@@ -4143,7 +4143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>1.34</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="7">
         <v>7</v>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="Q18" s="27"/>
       <c r="R18" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S18" s="5">
         <v>17</v>
@@ -4230,7 +4230,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>1.6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" s="7">
         <v>5.3</v>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="Q19" s="27"/>
       <c r="R19" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S19" s="5">
         <v>17</v>
@@ -4317,7 +4317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>1.76</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="7">
         <v>5.3</v>
@@ -4376,7 +4376,7 @@
       </c>
       <c r="Q20" s="27"/>
       <c r="R20" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S20" s="5">
         <v>18</v>
@@ -4404,7 +4404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="7">
         <v>3.5</v>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="Q21" s="27"/>
       <c r="R21" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S21" s="5">
         <v>21</v>
@@ -4491,7 +4491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>2.68</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" s="7">
         <v>3.5</v>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="Q22" s="27"/>
       <c r="R22" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S22" s="5">
         <v>22</v>
@@ -4578,7 +4578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="7">
         <v>1.8</v>
@@ -4637,7 +4637,7 @@
       </c>
       <c r="Q23" s="27"/>
       <c r="R23" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S23" s="5">
         <v>29</v>
@@ -4665,7 +4665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>2</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>5.21</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" s="17">
         <v>1.8</v>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="Q24" s="27"/>
       <c r="R24" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S24" s="16">
         <v>30</v>
@@ -4752,10 +4752,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <f>SUM(A3:A24)</f>
         <v>33</v>
@@ -4787,12 +4787,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Y27" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4808,7 +4808,7 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4823,109 +4823,109 @@
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.21875" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1796875" customWidth="1"/>
+    <col min="13" max="13" width="6.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="N1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -4933,10 +4933,10 @@
         <v>0.17</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="4">
         <v>9</v>
@@ -4973,7 +4973,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -4981,10 +4981,10 @@
         <v>0.188</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="54">
         <v>9</v>
@@ -5021,7 +5021,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="42">
         <v>1</v>
       </c>
@@ -5029,10 +5029,10 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E5" s="55">
         <v>8</v>
@@ -5069,7 +5069,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -5077,10 +5077,10 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="54">
         <v>8</v>
@@ -5117,7 +5117,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="42">
         <v>2</v>
       </c>
@@ -5125,10 +5125,10 @@
         <v>0.33700000000000002</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="55">
         <v>8</v>
@@ -5165,7 +5165,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -5173,10 +5173,10 @@
         <v>0.34200000000000003</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E8" s="54">
         <v>9</v>
@@ -5213,7 +5213,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="42">
         <v>1</v>
       </c>
@@ -5221,10 +5221,10 @@
         <v>0.40600000000000003</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="55">
         <v>9</v>
@@ -5261,7 +5261,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <v>2</v>
       </c>
@@ -5269,10 +5269,10 @@
         <v>0.44700000000000001</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="54">
         <v>10</v>
@@ -5309,7 +5309,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="42">
         <v>1</v>
       </c>
@@ -5317,10 +5317,10 @@
         <v>0.47099999999999997</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="55">
         <v>10</v>
@@ -5357,7 +5357,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <v>2</v>
       </c>
@@ -5365,10 +5365,10 @@
         <v>0.51900000000000002</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="54">
         <v>11</v>
@@ -5405,7 +5405,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="42">
         <v>1</v>
       </c>
@@ -5413,10 +5413,10 @@
         <v>0.60799999999999998</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" s="55">
         <v>11</v>
@@ -5453,7 +5453,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <v>2</v>
       </c>
@@ -5461,10 +5461,10 @@
         <v>0.67</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="54">
         <v>12</v>
@@ -5501,7 +5501,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="42">
         <v>1</v>
       </c>
@@ -5509,10 +5509,10 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="55">
         <v>13</v>
@@ -5549,7 +5549,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <v>2</v>
       </c>
@@ -5557,10 +5557,10 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" s="54">
         <v>14</v>
@@ -5597,7 +5597,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="42">
         <v>1</v>
       </c>
@@ -5605,10 +5605,10 @@
         <v>1.22</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" s="55">
         <v>16</v>
@@ -5645,7 +5645,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>2</v>
       </c>
@@ -5653,10 +5653,10 @@
         <v>1.34</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E18" s="54">
         <v>17</v>
@@ -5693,7 +5693,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="42">
         <v>1</v>
       </c>
@@ -5701,10 +5701,10 @@
         <v>1.6</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E19" s="55">
         <v>17</v>
@@ -5741,7 +5741,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="16">
         <v>2</v>
       </c>
@@ -5749,10 +5749,10 @@
         <v>1.76</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E20" s="54">
         <v>18</v>
@@ -5789,7 +5789,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="42">
         <v>1</v>
       </c>
@@ -5797,10 +5797,10 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="55">
         <v>21</v>
@@ -5837,7 +5837,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="16">
         <v>2</v>
       </c>
@@ -5845,10 +5845,10 @@
         <v>2.68</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E22" s="54">
         <v>22</v>
@@ -5885,7 +5885,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="42">
         <v>1</v>
       </c>
@@ -5893,10 +5893,10 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E23" s="55">
         <v>29</v>
@@ -5933,7 +5933,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>2</v>
       </c>
@@ -5941,10 +5941,10 @@
         <v>5.21</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" s="54">
         <v>30</v>
@@ -5981,10 +5981,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>33</v>
       </c>
@@ -5995,15 +5995,15 @@
         <v>38</v>
       </c>
       <c r="N26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="K27" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
+++ b/K9HZ_LPF_Module/K9HZ_LPF_V1.00_BOMs/K9HZ_LPF-Filter_Board_BOM_V1.00_01-10-24.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\K9HZ_LPF_Module\K9HZ_LPF_V1.00_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7736DE0-39D1-4D4A-931B-905A04EAF0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39917867-2F99-40AE-945B-FB62EBBB4AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="T41-WJS-10-band-LPF-filter" sheetId="1" r:id="rId1"/>
     <sheet name="Inductor Calcs" sheetId="2" r:id="rId2"/>
-    <sheet name="Basis" sheetId="3" r:id="rId3"/>
-    <sheet name="VNA" sheetId="4" r:id="rId4"/>
+    <sheet name="20W Coil Version" sheetId="5" r:id="rId3"/>
+    <sheet name="Basis" sheetId="3" r:id="rId4"/>
+    <sheet name="VNA" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="195">
   <si>
     <t>Qty</t>
   </si>
@@ -669,6 +670,21 @@
   </si>
   <si>
     <t>712-CONSMA001-G</t>
+  </si>
+  <si>
+    <t>T50-1</t>
+  </si>
+  <si>
+    <t>T50-6</t>
+  </si>
+  <si>
+    <t>T50-2</t>
+  </si>
+  <si>
+    <t>T50-17</t>
+  </si>
+  <si>
+    <t>Wire in #26</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1279,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1432,6 +1448,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2669,10 +2697,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21315881-8117-4FCF-A08E-B5E61CEF681B}">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2693,14 +2721,18 @@
     <col min="18" max="18" width="8.54296875" customWidth="1"/>
     <col min="19" max="19" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.6328125" style="5" customWidth="1"/>
+    <col min="21" max="21" width="7.7265625" style="5" customWidth="1"/>
+    <col min="22" max="22" width="6.7265625" style="5" customWidth="1"/>
     <col min="23" max="23" width="8.54296875" style="5" customWidth="1"/>
     <col min="24" max="24" width="8.81640625" style="5"/>
     <col min="25" max="25" width="9.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="2.26953125" style="5" customWidth="1"/>
+    <col min="31" max="31" width="1.453125" style="5" customWidth="1"/>
+    <col min="32" max="32" width="8.6328125" style="5" customWidth="1"/>
+    <col min="33" max="33" width="5.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>136</v>
       </c>
@@ -2774,8 +2806,46 @@
       <c r="Y1" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE1" s="60"/>
+      <c r="AF1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>129</v>
@@ -2834,8 +2904,42 @@
       <c r="Y2" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="6">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2924,8 +3028,55 @@
         <f>A3*X3</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="9">
+        <f t="shared" ref="AA3:AD18" si="2">SQRT($B3*1000/AA$2)</f>
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="AB3" s="9">
+        <f t="shared" si="2"/>
+        <v>5.8901508937395146</v>
+      </c>
+      <c r="AC3" s="9">
+        <f t="shared" si="2"/>
+        <v>6.5192024052026492</v>
+      </c>
+      <c r="AD3" s="9">
+        <f t="shared" si="2"/>
+        <v>9.7182531580755001</v>
+      </c>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="5">
+        <f>AD2</f>
+        <v>1.8</v>
+      </c>
+      <c r="AI3" s="5">
+        <f>B3</f>
+        <v>0.17</v>
+      </c>
+      <c r="AJ3" s="56">
+        <f t="shared" ref="AJ3:AJ24" si="3">AG3*AG3*AH3/1000</f>
+        <v>0.18</v>
+      </c>
+      <c r="AK3" s="33">
+        <f>(AJ3-AI3)/AJ3</f>
+        <v>5.5555555555555455E-2</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>9</v>
+      </c>
+      <c r="AM3" s="63">
+        <f>A3*AL3</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -2942,7 +3093,7 @@
         <v>54</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" ref="F4:I24" si="2">SQRT($B4*1000/F$2)</f>
+        <f t="shared" ref="F4:I24" si="4">SQRT($B4*1000/F$2)</f>
         <v>15.832456116050556</v>
       </c>
       <c r="G4" s="9">
@@ -2993,7 +3144,7 @@
         <v>2.1</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" ref="U4:U24" si="3">B4</f>
+        <f t="shared" ref="U4:U24" si="5">B4</f>
         <v>0.188</v>
       </c>
       <c r="V4" s="8">
@@ -3001,18 +3152,65 @@
         <v>0.1701</v>
       </c>
       <c r="W4" s="33">
-        <f t="shared" ref="W4:W24" si="4">(V4-U4)/V4</f>
+        <f t="shared" ref="W4:W24" si="6">(V4-U4)/V4</f>
         <v>-0.10523221634332745</v>
       </c>
       <c r="X4" s="5">
         <v>10</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" ref="Y4:Y24" si="5">A4*X4</f>
+        <f t="shared" ref="Y4:Y24" si="7">A4*X4</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="9">
+        <f t="shared" si="2"/>
+        <v>4.3358966777357599</v>
+      </c>
+      <c r="AB4" s="9">
+        <f t="shared" si="2"/>
+        <v>6.1941381110510854</v>
+      </c>
+      <c r="AC4" s="9">
+        <f t="shared" si="2"/>
+        <v>6.8556546004010439</v>
+      </c>
+      <c r="AD4" s="9">
+        <f t="shared" si="2"/>
+        <v>10.219806477837261</v>
+      </c>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>10</v>
+      </c>
+      <c r="AH4" s="5">
+        <f>AD2</f>
+        <v>1.8</v>
+      </c>
+      <c r="AI4" s="5">
+        <f t="shared" ref="AI4:AI24" si="8">B4</f>
+        <v>0.188</v>
+      </c>
+      <c r="AJ4" s="56">
+        <f t="shared" si="3"/>
+        <v>0.18</v>
+      </c>
+      <c r="AK4" s="33">
+        <f t="shared" ref="AK4:AK24" si="9">(AJ4-AI4)/AJ4</f>
+        <v>-4.4444444444444488E-2</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>9</v>
+      </c>
+      <c r="AM4" s="63">
+        <f t="shared" ref="AM4:AM24" si="10">A4*AL4</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>1</v>
       </c>
@@ -3029,7 +3227,7 @@
         <v>29.7</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.165977949672232</v>
       </c>
       <c r="G5" s="9">
@@ -3080,7 +3278,7 @@
         <v>4.7</v>
       </c>
       <c r="U5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.30499999999999999</v>
       </c>
       <c r="V5" s="8">
@@ -3088,18 +3286,65 @@
         <v>0.30080000000000001</v>
       </c>
       <c r="W5" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.3962765957446747E-2</v>
       </c>
       <c r="X5" s="5">
         <v>9</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="9">
+        <f t="shared" si="2"/>
+        <v>5.5226805085936306</v>
+      </c>
+      <c r="AB5" s="9">
+        <f t="shared" si="2"/>
+        <v>7.8895435837051862</v>
+      </c>
+      <c r="AC5" s="9">
+        <f t="shared" si="2"/>
+        <v>8.7321245982864895</v>
+      </c>
+      <c r="AD5" s="9">
+        <f t="shared" si="2"/>
+        <v>13.017082793177757</v>
+      </c>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>9</v>
+      </c>
+      <c r="AH5" s="62">
+        <f>AC$2</f>
+        <v>4</v>
+      </c>
+      <c r="AI5" s="5">
+        <f t="shared" si="8"/>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="AJ5" s="56">
+        <f t="shared" si="3"/>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AK5" s="33">
+        <f t="shared" si="9"/>
+        <v>5.8641975308642028E-2</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>8</v>
+      </c>
+      <c r="AM5" s="63">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -3116,7 +3361,7 @@
         <v>29.7</v>
       </c>
       <c r="F6" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21.134489978863144</v>
       </c>
       <c r="G6" s="9">
@@ -3167,7 +3412,7 @@
         <v>4.7</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.33500000000000002</v>
       </c>
       <c r="V6" s="8">
@@ -3175,18 +3420,65 @@
         <v>0.30080000000000001</v>
       </c>
       <c r="W6" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.11369680851063832</v>
       </c>
       <c r="X6" s="5">
         <v>9</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="9">
+        <f t="shared" si="2"/>
+        <v>5.7879184513951127</v>
+      </c>
+      <c r="AB6" s="9">
+        <f t="shared" si="2"/>
+        <v>8.268454930564447</v>
+      </c>
+      <c r="AC6" s="9">
+        <f t="shared" si="2"/>
+        <v>9.1515026088615627</v>
+      </c>
+      <c r="AD6" s="9">
+        <f t="shared" si="2"/>
+        <v>13.642254619787417</v>
+      </c>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="62">
+        <f t="shared" ref="AH6:AH18" si="11">AC$2</f>
+        <v>4</v>
+      </c>
+      <c r="AI6" s="5">
+        <f t="shared" si="8"/>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AJ6" s="56">
+        <f t="shared" si="3"/>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AK6" s="33">
+        <f t="shared" si="9"/>
+        <v>-3.3950617283950643E-2</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>8</v>
+      </c>
+      <c r="AM6" s="63">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -3203,7 +3495,7 @@
         <v>24.99</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21.197484127446195</v>
       </c>
       <c r="G7" s="9">
@@ -3254,7 +3546,7 @@
         <v>4.7</v>
       </c>
       <c r="U7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.33700000000000002</v>
       </c>
       <c r="V7" s="8">
@@ -3262,18 +3554,65 @@
         <v>0.30080000000000001</v>
       </c>
       <c r="W7" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-0.12034574468085109</v>
       </c>
       <c r="X7" s="5">
         <v>9</v>
       </c>
       <c r="Y7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="9">
+        <f t="shared" si="2"/>
+        <v>5.805170109479997</v>
+      </c>
+      <c r="AB7" s="9">
+        <f t="shared" si="2"/>
+        <v>8.293100156399996</v>
+      </c>
+      <c r="AC7" s="9">
+        <f t="shared" si="2"/>
+        <v>9.1787798753429097</v>
+      </c>
+      <c r="AD7" s="9">
+        <f t="shared" si="2"/>
+        <v>13.682917167849194</v>
+      </c>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>9</v>
+      </c>
+      <c r="AH7" s="62">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AI7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="AJ7" s="56">
+        <f t="shared" si="3"/>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AK7" s="33">
+        <f t="shared" si="9"/>
+        <v>-4.0123456790123489E-2</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>8</v>
+      </c>
+      <c r="AM7" s="63">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -3290,7 +3629,7 @@
         <v>24.99</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21.354156504062622</v>
       </c>
       <c r="G8" s="9">
@@ -3341,7 +3680,7 @@
         <v>4.7</v>
       </c>
       <c r="U8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.34200000000000003</v>
       </c>
       <c r="V8" s="8">
@@ -3349,18 +3688,65 @@
         <v>0.38069999999999998</v>
       </c>
       <c r="W8" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.1016548463356973</v>
       </c>
       <c r="X8" s="5">
         <v>9</v>
       </c>
       <c r="Y8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z8" s="61"/>
+      <c r="AA8" s="9">
+        <f t="shared" si="2"/>
+        <v>5.8480766068853782</v>
+      </c>
+      <c r="AB8" s="9">
+        <f t="shared" si="2"/>
+        <v>8.3543951526933977</v>
+      </c>
+      <c r="AC8" s="9">
+        <f t="shared" si="2"/>
+        <v>9.2466210044534645</v>
+      </c>
+      <c r="AD8" s="9">
+        <f t="shared" si="2"/>
+        <v>13.784048752090222</v>
+      </c>
+      <c r="AE8" s="61"/>
+      <c r="AF8" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>9</v>
+      </c>
+      <c r="AH8" s="62">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AI8" s="5">
+        <f t="shared" si="8"/>
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="AJ8" s="56">
+        <f t="shared" si="3"/>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="AK8" s="33">
+        <f t="shared" si="9"/>
+        <v>-5.5555555555555601E-2</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>8</v>
+      </c>
+      <c r="AM8" s="63">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -3377,7 +3763,7 @@
         <v>21.45</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23.266571155486865</v>
       </c>
       <c r="G9" s="9">
@@ -3428,7 +3814,7 @@
         <v>4.7</v>
       </c>
       <c r="U9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.40600000000000003</v>
       </c>
       <c r="V9" s="8">
@@ -3436,18 +3822,65 @@
         <v>0.38069999999999998</v>
       </c>
       <c r="W9" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-6.6456527449435365E-2</v>
       </c>
       <c r="X9" s="5">
         <v>10</v>
       </c>
       <c r="Y9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="9">
+        <f t="shared" si="2"/>
+        <v>6.3718129288295966</v>
+      </c>
+      <c r="AB9" s="9">
+        <f t="shared" si="2"/>
+        <v>9.1025898983279951</v>
+      </c>
+      <c r="AC9" s="9">
+        <f t="shared" si="2"/>
+        <v>10.074720839804943</v>
+      </c>
+      <c r="AD9" s="9">
+        <f t="shared" si="2"/>
+        <v>15.018507101425079</v>
+      </c>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>10</v>
+      </c>
+      <c r="AH9" s="62">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AI9" s="5">
+        <f t="shared" si="8"/>
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="AJ9" s="56">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="AK9" s="33">
+        <f t="shared" si="9"/>
+        <v>-1.5000000000000013E-2</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>9</v>
+      </c>
+      <c r="AM9" s="63">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -3464,7 +3897,7 @@
         <v>21.45</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24.413111231467404</v>
       </c>
       <c r="G10" s="9">
@@ -3515,7 +3948,7 @@
         <v>4.7</v>
       </c>
       <c r="U10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.44700000000000001</v>
       </c>
       <c r="V10" s="8">
@@ -3523,18 +3956,65 @@
         <v>0.47</v>
       </c>
       <c r="W10" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.8936170212765882E-2</v>
       </c>
       <c r="X10" s="5">
         <v>10</v>
       </c>
       <c r="Y10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="9">
+        <f t="shared" si="2"/>
+        <v>6.6858058601787116</v>
+      </c>
+      <c r="AB10" s="9">
+        <f t="shared" si="2"/>
+        <v>9.5511512288267308</v>
+      </c>
+      <c r="AC10" s="9">
+        <f t="shared" si="2"/>
+        <v>10.571187255932987</v>
+      </c>
+      <c r="AD10" s="9">
+        <f t="shared" si="2"/>
+        <v>15.758595538097083</v>
+      </c>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>11</v>
+      </c>
+      <c r="AH10" s="62">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AI10" s="5">
+        <f t="shared" si="8"/>
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AJ10" s="56">
+        <f t="shared" si="3"/>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="AK10" s="33">
+        <f t="shared" si="9"/>
+        <v>7.6446280991735491E-2</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>10</v>
+      </c>
+      <c r="AM10" s="63">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -3551,7 +4031,7 @@
         <v>18.167999999999999</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.059928172283335</v>
       </c>
       <c r="G11" s="9">
@@ -3602,7 +4082,7 @@
         <v>4.7</v>
       </c>
       <c r="U11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.47099999999999997</v>
       </c>
       <c r="V11" s="8">
@@ -3610,18 +4090,65 @@
         <v>0.47</v>
       </c>
       <c r="W11" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-2.1276595744680873E-3</v>
       </c>
       <c r="X11" s="5">
         <v>10</v>
       </c>
       <c r="Y11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="9">
+        <f t="shared" si="2"/>
+        <v>6.8629439747093963</v>
+      </c>
+      <c r="AB11" s="9">
+        <f t="shared" si="2"/>
+        <v>9.8042056781562792</v>
+      </c>
+      <c r="AC11" s="9">
+        <f t="shared" si="2"/>
+        <v>10.851267207105353</v>
+      </c>
+      <c r="AD11" s="9">
+        <f t="shared" si="2"/>
+        <v>16.176114078067904</v>
+      </c>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>11</v>
+      </c>
+      <c r="AH11" s="62">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AI11" s="5">
+        <f t="shared" si="8"/>
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="AJ11" s="56">
+        <f t="shared" si="3"/>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="AK11" s="33">
+        <f t="shared" si="9"/>
+        <v>2.685950413223143E-2</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>10</v>
+      </c>
+      <c r="AM11" s="63">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -3638,7 +4165,7 @@
         <v>18.167999999999999</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26.305892875931811</v>
       </c>
       <c r="G12" s="9">
@@ -3689,7 +4216,7 @@
         <v>4.7</v>
       </c>
       <c r="U12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.51900000000000002</v>
       </c>
       <c r="V12" s="8">
@@ -3697,18 +4224,65 @@
         <v>0.56870000000000009</v>
       </c>
       <c r="W12" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.739229822401981E-2</v>
       </c>
       <c r="X12" s="5">
         <v>11</v>
       </c>
       <c r="Y12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="9">
+        <f t="shared" si="2"/>
+        <v>7.2041654617311499</v>
+      </c>
+      <c r="AB12" s="9">
+        <f t="shared" si="2"/>
+        <v>10.291664945330215</v>
+      </c>
+      <c r="AC12" s="9">
+        <f t="shared" si="2"/>
+        <v>11.390785749894517</v>
+      </c>
+      <c r="AD12" s="9">
+        <f t="shared" si="2"/>
+        <v>16.980380835933371</v>
+      </c>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>11</v>
+      </c>
+      <c r="AH12" s="62">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AI12" s="5">
+        <f t="shared" si="8"/>
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="AJ12" s="56">
+        <f t="shared" si="3"/>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="AK12" s="33">
+        <f t="shared" si="9"/>
+        <v>-7.2314049586776924E-2</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>10</v>
+      </c>
+      <c r="AM12" s="63">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>1</v>
       </c>
@@ -3725,7 +4299,7 @@
         <v>14.35</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28.472208672083497</v>
       </c>
       <c r="G13" s="9">
@@ -3776,7 +4350,7 @@
         <v>4.7</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.60799999999999998</v>
       </c>
       <c r="V13" s="8">
@@ -3784,18 +4358,65 @@
         <v>0.56870000000000009</v>
       </c>
       <c r="W13" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-6.9104976261649173E-2</v>
       </c>
       <c r="X13" s="5">
         <v>11</v>
       </c>
       <c r="Y13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="9">
+        <f t="shared" si="2"/>
+        <v>7.7974354758471707</v>
+      </c>
+      <c r="AB13" s="9">
+        <f t="shared" si="2"/>
+        <v>11.13919353692453</v>
+      </c>
+      <c r="AC13" s="9">
+        <f t="shared" si="2"/>
+        <v>12.328828005937952</v>
+      </c>
+      <c r="AD13" s="9">
+        <f t="shared" si="2"/>
+        <v>18.378731669453629</v>
+      </c>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>12</v>
+      </c>
+      <c r="AH13" s="62">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AI13" s="5">
+        <f t="shared" si="8"/>
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="AJ13" s="56">
+        <f t="shared" si="3"/>
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="AK13" s="33">
+        <f t="shared" si="9"/>
+        <v>-5.5555555555555608E-2</v>
+      </c>
+      <c r="AL13" s="5">
+        <v>10</v>
+      </c>
+      <c r="AM13" s="63">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>2</v>
       </c>
@@ -3812,7 +4433,7 @@
         <v>14.35</v>
       </c>
       <c r="F14" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>29.888682361946525</v>
       </c>
       <c r="G14" s="9">
@@ -3863,7 +4484,7 @@
         <v>4.7</v>
       </c>
       <c r="U14" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.67</v>
       </c>
       <c r="V14" s="8">
@@ -3871,18 +4492,65 @@
         <v>0.67680000000000007</v>
       </c>
       <c r="W14" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0047281323877109E-2</v>
       </c>
       <c r="X14" s="5">
         <v>12</v>
       </c>
       <c r="Y14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="9">
+        <f t="shared" si="2"/>
+        <v>8.1853527718724504</v>
+      </c>
+      <c r="AB14" s="9">
+        <f t="shared" si="2"/>
+        <v>11.693361102674929</v>
+      </c>
+      <c r="AC14" s="9">
+        <f t="shared" si="2"/>
+        <v>12.942179105544785</v>
+      </c>
+      <c r="AD14" s="9">
+        <f t="shared" si="2"/>
+        <v>19.293061504650375</v>
+      </c>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>13</v>
+      </c>
+      <c r="AH14" s="62">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AI14" s="5">
+        <f t="shared" si="8"/>
+        <v>0.67</v>
+      </c>
+      <c r="AJ14" s="56">
+        <f t="shared" si="3"/>
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="AK14" s="33">
+        <f t="shared" si="9"/>
+        <v>8.8757396449704214E-3</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>11</v>
+      </c>
+      <c r="AM14" s="63">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -3899,7 +4567,7 @@
         <v>10.15</v>
       </c>
       <c r="F15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33.526109228480422</v>
       </c>
       <c r="G15" s="9">
@@ -3950,7 +4618,7 @@
         <v>4.7</v>
       </c>
       <c r="U15" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.84299999999999997</v>
       </c>
       <c r="V15" s="8">
@@ -3958,18 +4626,65 @@
         <v>0.79430000000000012</v>
       </c>
       <c r="W15" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-6.1311846909228057E-2</v>
       </c>
       <c r="X15" s="5">
         <v>13</v>
       </c>
       <c r="Y15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="9">
+        <f t="shared" si="2"/>
+        <v>9.1815031449104243</v>
+      </c>
+      <c r="AB15" s="9">
+        <f t="shared" si="2"/>
+        <v>13.116433064157748</v>
+      </c>
+      <c r="AC15" s="9">
+        <f t="shared" si="2"/>
+        <v>14.517231140957975</v>
+      </c>
+      <c r="AD15" s="9">
+        <f t="shared" si="2"/>
+        <v>21.641010450839243</v>
+      </c>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>14</v>
+      </c>
+      <c r="AH15" s="62">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AI15" s="5">
+        <f t="shared" si="8"/>
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AJ15" s="56">
+        <f t="shared" si="3"/>
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="AK15" s="33">
+        <f t="shared" si="9"/>
+        <v>-7.5255102040816244E-2</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>12</v>
+      </c>
+      <c r="AM15" s="63">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -3986,7 +4701,7 @@
         <v>10.15</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35.175749222061114</v>
       </c>
       <c r="G16" s="9">
@@ -4037,7 +4752,7 @@
         <v>4.7</v>
       </c>
       <c r="U16" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.92800000000000005</v>
       </c>
       <c r="V16" s="8">
@@ -4045,18 +4760,65 @@
         <v>0.92120000000000002</v>
       </c>
       <c r="W16" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-7.3816760746852235E-3</v>
       </c>
       <c r="X16" s="5">
         <v>14</v>
       </c>
       <c r="Y16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="9">
+        <f t="shared" si="2"/>
+        <v>9.633275663033837</v>
+      </c>
+      <c r="AB16" s="9">
+        <f t="shared" si="2"/>
+        <v>13.761822375762623</v>
+      </c>
+      <c r="AC16" s="9">
+        <f t="shared" si="2"/>
+        <v>15.231546211727817</v>
+      </c>
+      <c r="AD16" s="9">
+        <f t="shared" si="2"/>
+        <v>22.705848487901868</v>
+      </c>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>15</v>
+      </c>
+      <c r="AH16" s="62">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AI16" s="5">
+        <f t="shared" si="8"/>
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="AJ16" s="56">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="AK16" s="33">
+        <f t="shared" si="9"/>
+        <v>-3.1111111111111138E-2</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>12</v>
+      </c>
+      <c r="AM16" s="63">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>1</v>
       </c>
@@ -4073,7 +4835,7 @@
         <v>7.3</v>
       </c>
       <c r="F17" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40.331955899344464</v>
       </c>
       <c r="G17" s="9">
@@ -4124,7 +4886,7 @@
         <v>4.7</v>
       </c>
       <c r="U17" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.22</v>
       </c>
       <c r="V17" s="8">
@@ -4132,18 +4894,65 @@
         <v>1.2032</v>
       </c>
       <c r="W17" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.3962765957446747E-2</v>
       </c>
       <c r="X17" s="5">
         <v>15</v>
       </c>
       <c r="Y17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="9">
+        <f t="shared" si="2"/>
+        <v>11.045361017187261</v>
+      </c>
+      <c r="AB17" s="9">
+        <f t="shared" si="2"/>
+        <v>15.779087167410372</v>
+      </c>
+      <c r="AC17" s="9">
+        <f t="shared" si="2"/>
+        <v>17.464249196572979</v>
+      </c>
+      <c r="AD17" s="9">
+        <f t="shared" si="2"/>
+        <v>26.034165586355513</v>
+      </c>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>17</v>
+      </c>
+      <c r="AH17" s="62">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AI17" s="5">
+        <f t="shared" si="8"/>
+        <v>1.22</v>
+      </c>
+      <c r="AJ17" s="56">
+        <f t="shared" si="3"/>
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="AK17" s="33">
+        <f t="shared" si="9"/>
+        <v>-5.5363321799308009E-2</v>
+      </c>
+      <c r="AL17" s="5">
+        <v>14</v>
+      </c>
+      <c r="AM17" s="63">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>2</v>
       </c>
@@ -4160,7 +4969,7 @@
         <v>7.3</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42.268979957726287</v>
       </c>
       <c r="G18" s="9">
@@ -4211,7 +5020,7 @@
         <v>4.7</v>
       </c>
       <c r="U18" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.34</v>
       </c>
       <c r="V18" s="8">
@@ -4226,11 +5035,58 @@
         <v>16</v>
       </c>
       <c r="Y18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="9">
+        <f t="shared" si="2"/>
+        <v>11.575836902790225</v>
+      </c>
+      <c r="AB18" s="9">
+        <f t="shared" si="2"/>
+        <v>16.536909861128894</v>
+      </c>
+      <c r="AC18" s="9">
+        <f t="shared" si="2"/>
+        <v>18.303005217723125</v>
+      </c>
+      <c r="AD18" s="9">
+        <f t="shared" si="2"/>
+        <v>27.284509239574835</v>
+      </c>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>18</v>
+      </c>
+      <c r="AH18" s="62">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AI18" s="5">
+        <f t="shared" si="8"/>
+        <v>1.34</v>
+      </c>
+      <c r="AJ18" s="56">
+        <f t="shared" si="3"/>
+        <v>1.296</v>
+      </c>
+      <c r="AK18" s="33">
+        <f>(AJ18-AI18)/AJ18</f>
+        <v>-3.3950617283950643E-2</v>
+      </c>
+      <c r="AL18" s="5">
+        <v>14</v>
+      </c>
+      <c r="AM18" s="63">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -4247,44 +5103,44 @@
         <v>5.5</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46.188021535170066</v>
       </c>
       <c r="G19" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.79535649239177</v>
       </c>
       <c r="H19" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.754156331667819</v>
       </c>
       <c r="I19" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.0582162731567664</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="12">
-        <f t="shared" ref="K19:P24" si="6">SQRT($B19*1000/K$2)</f>
+        <f t="shared" ref="K19:P24" si="12">SQRT($B19*1000/K$2)</f>
         <v>18.4506241605777</v>
       </c>
       <c r="L19" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>17.541160386140582</v>
       </c>
       <c r="M19" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>9.0582162731567664</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>22.360679774997898</v>
       </c>
       <c r="O19" s="14" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P19" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>27.602622373694167</v>
       </c>
       <c r="Q19" s="27"/>
@@ -4298,7 +5154,7 @@
         <v>5.7</v>
       </c>
       <c r="U19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
       <c r="V19" s="8">
@@ -4306,18 +5162,65 @@
         <v>1.6473</v>
       </c>
       <c r="W19" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8713652643719965E-2</v>
       </c>
       <c r="X19" s="5">
         <v>16</v>
       </c>
       <c r="Y19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="9">
+        <f t="shared" ref="AA19:AD24" si="13">SQRT($B19*1000/AA$2)</f>
+        <v>12.649110640673518</v>
+      </c>
+      <c r="AB19" s="9">
+        <f t="shared" si="13"/>
+        <v>18.070158058105026</v>
+      </c>
+      <c r="AC19" s="9">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="AD19" s="9">
+        <f t="shared" si="13"/>
+        <v>29.814239699997195</v>
+      </c>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>18</v>
+      </c>
+      <c r="AH19" s="5">
+        <f>AB$2</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AI19" s="5">
+        <f t="shared" si="8"/>
+        <v>1.6</v>
+      </c>
+      <c r="AJ19" s="56">
+        <f t="shared" si="3"/>
+        <v>1.5876000000000001</v>
+      </c>
+      <c r="AK19" s="33">
+        <f t="shared" ref="AK19:AK29" si="14">(AJ19-AI19)/AJ19</f>
+        <v>-7.810531620055408E-3</v>
+      </c>
+      <c r="AL19" s="5">
+        <v>14</v>
+      </c>
+      <c r="AM19" s="63">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2</v>
       </c>
@@ -4334,44 +5237,44 @@
         <v>5.5</v>
       </c>
       <c r="F20" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48.442405665559868</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.371074256541732</v>
       </c>
       <c r="H20" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.571907404279177</v>
       </c>
       <c r="I20" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.5003373759256711</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>19.351177873875869</v>
       </c>
       <c r="L20" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>18.397324220155998</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>9.5003373759256711</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>23.45207879911715</v>
       </c>
       <c r="O20" s="14" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P20" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>28.949874578229835</v>
       </c>
       <c r="Q20" s="27"/>
@@ -4385,7 +5288,7 @@
         <v>5.7</v>
       </c>
       <c r="U20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.76</v>
       </c>
       <c r="V20" s="8">
@@ -4393,18 +5296,65 @@
         <v>1.8468</v>
       </c>
       <c r="W20" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.7000216590859858E-2</v>
       </c>
       <c r="X20" s="5">
         <v>17</v>
       </c>
       <c r="Y20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="9">
+        <f t="shared" si="13"/>
+        <v>13.266499161421599</v>
+      </c>
+      <c r="AB20" s="9">
+        <f t="shared" si="13"/>
+        <v>18.952141659173712</v>
+      </c>
+      <c r="AC20" s="9">
+        <f t="shared" si="13"/>
+        <v>20.976176963403031</v>
+      </c>
+      <c r="AD20" s="9">
+        <f t="shared" si="13"/>
+        <v>31.269438398822864</v>
+      </c>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>19</v>
+      </c>
+      <c r="AH20" s="5">
+        <f t="shared" ref="AH20:AH24" si="15">AB$2</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AI20" s="5">
+        <f t="shared" si="8"/>
+        <v>1.76</v>
+      </c>
+      <c r="AJ20" s="56">
+        <f t="shared" si="3"/>
+        <v>1.7689000000000001</v>
+      </c>
+      <c r="AK20" s="33">
+        <f t="shared" si="14"/>
+        <v>5.0313754310589232E-3</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>15</v>
+      </c>
+      <c r="AM20" s="63">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>1</v>
       </c>
@@ -4421,44 +5371,44 @@
         <v>4</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56.920997883030829</v>
       </c>
       <c r="G21" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.536311355570469</v>
       </c>
       <c r="H21" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.647416048350561</v>
       </c>
       <c r="I21" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.163126113028762</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>22.738101868796011</v>
       </c>
       <c r="L21" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>21.61730076368676</v>
       </c>
       <c r="M21" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>11.163126113028762</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>27.556759606310752</v>
       </c>
       <c r="O21" s="14" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>34.01680257083045</v>
       </c>
       <c r="Q21" s="27"/>
@@ -4472,7 +5422,7 @@
         <v>5.7</v>
       </c>
       <c r="U21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.4300000000000002</v>
       </c>
       <c r="V21" s="8">
@@ -4480,18 +5430,65 @@
         <v>2.5137000000000005</v>
       </c>
       <c r="W21" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.3297529538131164E-2</v>
       </c>
       <c r="X21" s="5">
         <v>19</v>
       </c>
       <c r="Y21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="9">
+        <f t="shared" si="13"/>
+        <v>15.588457268119896</v>
+      </c>
+      <c r="AB21" s="9">
+        <f t="shared" si="13"/>
+        <v>22.269224668742709</v>
+      </c>
+      <c r="AC21" s="9">
+        <f t="shared" si="13"/>
+        <v>24.647515087732476</v>
+      </c>
+      <c r="AD21" s="9">
+        <f t="shared" si="13"/>
+        <v>36.742346141747674</v>
+      </c>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>22</v>
+      </c>
+      <c r="AH21" s="5">
+        <f t="shared" si="15"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AI21" s="5">
+        <f t="shared" si="8"/>
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AJ21" s="56">
+        <f t="shared" si="3"/>
+        <v>2.3716000000000004</v>
+      </c>
+      <c r="AK21" s="33">
+        <f t="shared" si="14"/>
+        <v>-2.4624725923427127E-2</v>
+      </c>
+      <c r="AL21" s="5">
+        <v>17</v>
+      </c>
+      <c r="AM21" s="63">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>2</v>
       </c>
@@ -4508,44 +5505,44 @@
         <v>4</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>59.777364723893051</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.265761633828479</v>
       </c>
       <c r="H22" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21.683529200674212</v>
       </c>
       <c r="I22" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.723305738395524</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>23.879128249528851</v>
       </c>
       <c r="L22" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>22.702083943651854</v>
       </c>
       <c r="M22" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>11.723305738395524</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>28.939592256975562</v>
       </c>
       <c r="O22" s="14" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>35.723808254306768</v>
       </c>
       <c r="Q22" s="27"/>
@@ -4559,7 +5556,7 @@
         <v>5.7</v>
       </c>
       <c r="U22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.68</v>
       </c>
       <c r="V22" s="8">
@@ -4567,18 +5564,65 @@
         <v>2.7588000000000004</v>
       </c>
       <c r="W22" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.856314339567935E-2</v>
       </c>
       <c r="X22" s="5">
         <v>20</v>
       </c>
       <c r="Y22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="9">
+        <f t="shared" si="13"/>
+        <v>16.370705543744901</v>
+      </c>
+      <c r="AB22" s="9">
+        <f t="shared" si="13"/>
+        <v>23.386722205349859</v>
+      </c>
+      <c r="AC22" s="9">
+        <f t="shared" si="13"/>
+        <v>25.88435821108957</v>
+      </c>
+      <c r="AD22" s="9">
+        <f t="shared" si="13"/>
+        <v>38.586123009300749</v>
+      </c>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>23</v>
+      </c>
+      <c r="AH22" s="5">
+        <f t="shared" si="15"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AI22" s="5">
+        <f t="shared" si="8"/>
+        <v>2.68</v>
+      </c>
+      <c r="AJ22" s="56">
+        <f t="shared" si="3"/>
+        <v>2.5921000000000003</v>
+      </c>
+      <c r="AK22" s="33">
+        <f t="shared" si="14"/>
+        <v>-3.3910728752748684E-2</v>
+      </c>
+      <c r="AL22" s="5">
+        <v>18</v>
+      </c>
+      <c r="AM22" s="63">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>1</v>
       </c>
@@ -4595,44 +5639,44 @@
         <v>2</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>79.414524280301947</v>
       </c>
       <c r="G23" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.28063972921187</v>
       </c>
       <c r="H23" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28.806675639571964</v>
       </c>
       <c r="I23" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.574469575690292</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>31.723539820193526</v>
       </c>
       <c r="L23" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>30.159830646331297</v>
       </c>
       <c r="M23" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>15.574469575690292</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>38.446391248074249</v>
       </c>
       <c r="O23" s="14" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P23" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>47.459255708248861</v>
       </c>
       <c r="Q23" s="27"/>
@@ -4646,7 +5690,7 @@
         <v>5.7</v>
       </c>
       <c r="U23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.7300000000000004</v>
       </c>
       <c r="V23" s="8">
@@ -4654,18 +5698,65 @@
         <v>4.7936999999999994</v>
       </c>
       <c r="W23" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3288274193211713E-2</v>
       </c>
       <c r="X23" s="5">
         <v>26</v>
       </c>
       <c r="Y23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="9">
+        <f t="shared" si="13"/>
+        <v>21.748563170931547</v>
+      </c>
+      <c r="AB23" s="9">
+        <f t="shared" si="13"/>
+        <v>31.069375958473636</v>
+      </c>
+      <c r="AC23" s="9">
+        <f t="shared" si="13"/>
+        <v>34.387497728098801</v>
+      </c>
+      <c r="AD23" s="9">
+        <f t="shared" si="13"/>
+        <v>51.26185499743233</v>
+      </c>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>31</v>
+      </c>
+      <c r="AH23" s="5">
+        <f t="shared" si="15"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AI23" s="5">
+        <f t="shared" si="8"/>
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="AJ23" s="56">
+        <f t="shared" si="3"/>
+        <v>4.7089000000000008</v>
+      </c>
+      <c r="AK23" s="33">
+        <f t="shared" si="14"/>
+        <v>-4.4808766378559052E-3</v>
+      </c>
+      <c r="AL23" s="5">
+        <v>23</v>
+      </c>
+      <c r="AM23" s="63">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>2</v>
       </c>
@@ -4682,44 +5773,44 @@
         <v>2</v>
       </c>
       <c r="F24" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>83.346665600170638</v>
       </c>
       <c r="G24" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21.284818022733237</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30.233013209392446</v>
       </c>
       <c r="I24" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.345625934160097</v>
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>33.294303391088874</v>
       </c>
       <c r="L24" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>31.653168513169057</v>
       </c>
       <c r="M24" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>16.345625934160097</v>
       </c>
       <c r="N24" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>40.350030978922433</v>
       </c>
       <c r="O24" s="21" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P24" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>49.809159608975342</v>
       </c>
       <c r="Q24" s="27"/>
@@ -4733,7 +5824,7 @@
         <v>5.7</v>
       </c>
       <c r="U24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.21</v>
       </c>
       <c r="V24" s="8">
@@ -4741,21 +5832,74 @@
         <v>5.13</v>
       </c>
       <c r="W24" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.5594541910331399E-2</v>
       </c>
       <c r="X24" s="5">
         <v>26</v>
       </c>
       <c r="Y24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="9">
+        <f t="shared" si="13"/>
+        <v>22.825424421026653</v>
+      </c>
+      <c r="AB24" s="9">
+        <f t="shared" si="13"/>
+        <v>32.607749172895218</v>
+      </c>
+      <c r="AC24" s="9">
+        <f t="shared" si="13"/>
+        <v>36.090164865237178</v>
+      </c>
+      <c r="AD24" s="9">
+        <f t="shared" si="13"/>
+        <v>53.800041305229911</v>
+      </c>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG24" s="16">
+        <v>32</v>
+      </c>
+      <c r="AH24" s="5">
+        <f t="shared" si="15"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AI24" s="5">
+        <f t="shared" si="8"/>
+        <v>5.21</v>
+      </c>
+      <c r="AJ24" s="56">
+        <f t="shared" si="3"/>
+        <v>5.0176000000000007</v>
+      </c>
+      <c r="AK24" s="33">
+        <f t="shared" si="14"/>
+        <v>-3.8345025510203926E-2</v>
+      </c>
+      <c r="AL24" s="5">
+        <v>24</v>
+      </c>
+      <c r="AM24" s="63">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.35">
       <c r="R25" s="5"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <f>SUM(A3:A24)</f>
         <v>33</v>
@@ -4782,16 +5926,54 @@
         <f>SUM(Y3:Y24)</f>
         <v>456</v>
       </c>
-      <c r="Z26" s="5">
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5">
+        <f>SUM(AM3:AM24)</f>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="Y27" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="Y28" s="5">
         <f>Y26/12</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="Y27" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z27" s="5" t="s">
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="63">
+        <f>AM26/12</f>
+        <v>34.333333333333336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="Y29" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4801,6 +5983,1446 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16AA84DC-3EE7-4F03-9779-F8422DED886C}">
+  <dimension ref="A1:U29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" style="5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="1.453125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.6328125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K1" s="60"/>
+      <c r="L1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G2" s="6">
+        <v>10</v>
+      </c>
+      <c r="H2" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I2" s="6">
+        <v>4</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="K2" s="60"/>
+      <c r="L2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="7">
+        <v>50</v>
+      </c>
+      <c r="E3" s="8">
+        <v>54</v>
+      </c>
+      <c r="F3" s="9">
+        <v>15.055453054181619</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4.1231056256176606</v>
+      </c>
+      <c r="H3" s="9">
+        <v>5.8901508937395146</v>
+      </c>
+      <c r="I3" s="9">
+        <v>6.5192024052026492</v>
+      </c>
+      <c r="J3" s="9">
+        <v>9.7182531580755001</v>
+      </c>
+      <c r="K3" s="61"/>
+      <c r="L3" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="M3" s="5">
+        <v>10</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="P3" s="56">
+        <v>0.18</v>
+      </c>
+      <c r="Q3" s="33">
+        <v>5.5555555555555455E-2</v>
+      </c>
+      <c r="R3" s="5">
+        <v>9</v>
+      </c>
+      <c r="S3" s="63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.188</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="7">
+        <v>50</v>
+      </c>
+      <c r="E4" s="8">
+        <v>54</v>
+      </c>
+      <c r="F4" s="9">
+        <v>15.832456116050556</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4.3358966777357599</v>
+      </c>
+      <c r="H4" s="9">
+        <v>6.1941381110510854</v>
+      </c>
+      <c r="I4" s="9">
+        <v>6.8556546004010439</v>
+      </c>
+      <c r="J4" s="9">
+        <v>10.219806477837261</v>
+      </c>
+      <c r="K4" s="61"/>
+      <c r="L4" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" s="5">
+        <v>10</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.188</v>
+      </c>
+      <c r="P4" s="56">
+        <v>0.18</v>
+      </c>
+      <c r="Q4" s="33">
+        <v>-4.4444444444444488E-2</v>
+      </c>
+      <c r="R4" s="5">
+        <v>9</v>
+      </c>
+      <c r="S4" s="63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="7">
+        <v>28</v>
+      </c>
+      <c r="E5" s="8">
+        <v>29.7</v>
+      </c>
+      <c r="F5" s="12">
+        <v>20.165977949672232</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5.5226805085936306</v>
+      </c>
+      <c r="H5" s="9">
+        <v>7.8895435837051862</v>
+      </c>
+      <c r="I5" s="9">
+        <v>8.7321245982864895</v>
+      </c>
+      <c r="J5" s="9">
+        <v>13.017082793177757</v>
+      </c>
+      <c r="K5" s="61"/>
+      <c r="L5" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="5">
+        <v>9</v>
+      </c>
+      <c r="N5" s="62">
+        <v>4</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="P5" s="56">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Q5" s="33">
+        <v>5.8641975308642028E-2</v>
+      </c>
+      <c r="R5" s="5">
+        <v>8</v>
+      </c>
+      <c r="S5" s="63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="7">
+        <v>28</v>
+      </c>
+      <c r="E6" s="8">
+        <v>29.7</v>
+      </c>
+      <c r="F6" s="12">
+        <v>21.134489978863144</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5.7879184513951127</v>
+      </c>
+      <c r="H6" s="9">
+        <v>8.268454930564447</v>
+      </c>
+      <c r="I6" s="9">
+        <v>9.1515026088615627</v>
+      </c>
+      <c r="J6" s="9">
+        <v>13.642254619787417</v>
+      </c>
+      <c r="K6" s="61"/>
+      <c r="L6" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="5">
+        <v>9</v>
+      </c>
+      <c r="N6" s="62">
+        <v>4</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="P6" s="56">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Q6" s="33">
+        <v>-3.3950617283950643E-2</v>
+      </c>
+      <c r="R6" s="5">
+        <v>8</v>
+      </c>
+      <c r="S6" s="63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="7">
+        <v>24.89</v>
+      </c>
+      <c r="E7" s="8">
+        <v>24.99</v>
+      </c>
+      <c r="F7" s="12">
+        <v>21.197484127446195</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5.805170109479997</v>
+      </c>
+      <c r="H7" s="9">
+        <v>8.293100156399996</v>
+      </c>
+      <c r="I7" s="9">
+        <v>9.1787798753429097</v>
+      </c>
+      <c r="J7" s="9">
+        <v>13.682917167849194</v>
+      </c>
+      <c r="K7" s="61"/>
+      <c r="L7" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="M7" s="5">
+        <v>9</v>
+      </c>
+      <c r="N7" s="62">
+        <v>4</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="P7" s="56">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Q7" s="33">
+        <v>-4.0123456790123489E-2</v>
+      </c>
+      <c r="R7" s="5">
+        <v>8</v>
+      </c>
+      <c r="S7" s="63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="7">
+        <v>24.89</v>
+      </c>
+      <c r="E8" s="8">
+        <v>24.99</v>
+      </c>
+      <c r="F8" s="12">
+        <v>21.354156504062622</v>
+      </c>
+      <c r="G8" s="9">
+        <v>5.8480766068853782</v>
+      </c>
+      <c r="H8" s="9">
+        <v>8.3543951526933977</v>
+      </c>
+      <c r="I8" s="9">
+        <v>9.2466210044534645</v>
+      </c>
+      <c r="J8" s="9">
+        <v>13.784048752090222</v>
+      </c>
+      <c r="K8" s="61"/>
+      <c r="L8" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="5">
+        <v>9</v>
+      </c>
+      <c r="N8" s="62">
+        <v>4</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="P8" s="56">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Q8" s="33">
+        <v>-5.5555555555555601E-2</v>
+      </c>
+      <c r="R8" s="5">
+        <v>8</v>
+      </c>
+      <c r="S8" s="63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="7">
+        <v>21</v>
+      </c>
+      <c r="E9" s="8">
+        <v>21.45</v>
+      </c>
+      <c r="F9" s="12">
+        <v>23.266571155486865</v>
+      </c>
+      <c r="G9" s="9">
+        <v>6.3718129288295966</v>
+      </c>
+      <c r="H9" s="9">
+        <v>9.1025898983279951</v>
+      </c>
+      <c r="I9" s="9">
+        <v>10.074720839804943</v>
+      </c>
+      <c r="J9" s="9">
+        <v>15.018507101425079</v>
+      </c>
+      <c r="K9" s="61"/>
+      <c r="L9" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="M9" s="5">
+        <v>10</v>
+      </c>
+      <c r="N9" s="62">
+        <v>4</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="P9" s="56">
+        <v>0.4</v>
+      </c>
+      <c r="Q9" s="33">
+        <v>-1.5000000000000013E-2</v>
+      </c>
+      <c r="R9" s="5">
+        <v>9</v>
+      </c>
+      <c r="S9" s="63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="7">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8">
+        <v>21.45</v>
+      </c>
+      <c r="F10" s="12">
+        <v>24.413111231467404</v>
+      </c>
+      <c r="G10" s="9">
+        <v>6.6858058601787116</v>
+      </c>
+      <c r="H10" s="9">
+        <v>9.5511512288267308</v>
+      </c>
+      <c r="I10" s="9">
+        <v>10.571187255932987</v>
+      </c>
+      <c r="J10" s="9">
+        <v>15.758595538097083</v>
+      </c>
+      <c r="K10" s="61"/>
+      <c r="L10" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="M10" s="5">
+        <v>11</v>
+      </c>
+      <c r="N10" s="62">
+        <v>4</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="P10" s="56">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="Q10" s="33">
+        <v>7.6446280991735491E-2</v>
+      </c>
+      <c r="R10" s="5">
+        <v>10</v>
+      </c>
+      <c r="S10" s="63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="7">
+        <v>18.068000000000001</v>
+      </c>
+      <c r="E11" s="8">
+        <v>18.167999999999999</v>
+      </c>
+      <c r="F11" s="12">
+        <v>25.059928172283335</v>
+      </c>
+      <c r="G11" s="9">
+        <v>6.8629439747093963</v>
+      </c>
+      <c r="H11" s="9">
+        <v>9.8042056781562792</v>
+      </c>
+      <c r="I11" s="9">
+        <v>10.851267207105353</v>
+      </c>
+      <c r="J11" s="9">
+        <v>16.176114078067904</v>
+      </c>
+      <c r="K11" s="61"/>
+      <c r="L11" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="M11" s="5">
+        <v>11</v>
+      </c>
+      <c r="N11" s="62">
+        <v>4</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="P11" s="56">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>2.685950413223143E-2</v>
+      </c>
+      <c r="R11" s="5">
+        <v>10</v>
+      </c>
+      <c r="S11" s="63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="7">
+        <v>18.068000000000001</v>
+      </c>
+      <c r="E12" s="8">
+        <v>18.167999999999999</v>
+      </c>
+      <c r="F12" s="12">
+        <v>26.305892875931811</v>
+      </c>
+      <c r="G12" s="9">
+        <v>7.2041654617311499</v>
+      </c>
+      <c r="H12" s="9">
+        <v>10.291664945330215</v>
+      </c>
+      <c r="I12" s="9">
+        <v>11.390785749894517</v>
+      </c>
+      <c r="J12" s="9">
+        <v>16.980380835933371</v>
+      </c>
+      <c r="K12" s="61"/>
+      <c r="L12" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="M12" s="5">
+        <v>11</v>
+      </c>
+      <c r="N12" s="62">
+        <v>4</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="P12" s="56">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="Q12" s="33">
+        <v>-7.2314049586776924E-2</v>
+      </c>
+      <c r="R12" s="5">
+        <v>10</v>
+      </c>
+      <c r="S12" s="63">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="7">
+        <v>14</v>
+      </c>
+      <c r="E13" s="8">
+        <v>14.35</v>
+      </c>
+      <c r="F13" s="12">
+        <v>28.472208672083497</v>
+      </c>
+      <c r="G13" s="9">
+        <v>7.7974354758471707</v>
+      </c>
+      <c r="H13" s="9">
+        <v>11.13919353692453</v>
+      </c>
+      <c r="I13" s="9">
+        <v>12.328828005937952</v>
+      </c>
+      <c r="J13" s="9">
+        <v>18.378731669453629</v>
+      </c>
+      <c r="K13" s="61"/>
+      <c r="L13" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="M13" s="5">
+        <v>12</v>
+      </c>
+      <c r="N13" s="62">
+        <v>4</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="P13" s="56">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="Q13" s="33">
+        <v>-5.5555555555555608E-2</v>
+      </c>
+      <c r="R13" s="5">
+        <v>10</v>
+      </c>
+      <c r="S13" s="63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="7">
+        <v>14</v>
+      </c>
+      <c r="E14" s="8">
+        <v>14.35</v>
+      </c>
+      <c r="F14" s="12">
+        <v>29.888682361946525</v>
+      </c>
+      <c r="G14" s="9">
+        <v>8.1853527718724504</v>
+      </c>
+      <c r="H14" s="9">
+        <v>11.693361102674929</v>
+      </c>
+      <c r="I14" s="9">
+        <v>12.942179105544785</v>
+      </c>
+      <c r="J14" s="9">
+        <v>19.293061504650375</v>
+      </c>
+      <c r="K14" s="61"/>
+      <c r="L14" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="M14" s="5">
+        <v>13</v>
+      </c>
+      <c r="N14" s="62">
+        <v>4</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="P14" s="56">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="Q14" s="33">
+        <v>8.8757396449704214E-3</v>
+      </c>
+      <c r="R14" s="5">
+        <v>11</v>
+      </c>
+      <c r="S14" s="63">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>10.15</v>
+      </c>
+      <c r="F15" s="12">
+        <v>33.526109228480422</v>
+      </c>
+      <c r="G15" s="9">
+        <v>9.1815031449104243</v>
+      </c>
+      <c r="H15" s="9">
+        <v>13.116433064157748</v>
+      </c>
+      <c r="I15" s="9">
+        <v>14.517231140957975</v>
+      </c>
+      <c r="J15" s="9">
+        <v>21.641010450839243</v>
+      </c>
+      <c r="K15" s="61"/>
+      <c r="L15" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="M15" s="5">
+        <v>14</v>
+      </c>
+      <c r="N15" s="62">
+        <v>4</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="P15" s="56">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="Q15" s="33">
+        <v>-7.5255102040816244E-2</v>
+      </c>
+      <c r="R15" s="5">
+        <v>12</v>
+      </c>
+      <c r="S15" s="63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="7">
+        <v>10.1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>10.15</v>
+      </c>
+      <c r="F16" s="12">
+        <v>35.175749222061114</v>
+      </c>
+      <c r="G16" s="9">
+        <v>9.633275663033837</v>
+      </c>
+      <c r="H16" s="9">
+        <v>13.761822375762623</v>
+      </c>
+      <c r="I16" s="9">
+        <v>15.231546211727817</v>
+      </c>
+      <c r="J16" s="9">
+        <v>22.705848487901868</v>
+      </c>
+      <c r="K16" s="61"/>
+      <c r="L16" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="M16" s="5">
+        <v>15</v>
+      </c>
+      <c r="N16" s="62">
+        <v>4</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="P16" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="Q16" s="33">
+        <v>-3.1111111111111138E-2</v>
+      </c>
+      <c r="R16" s="5">
+        <v>12</v>
+      </c>
+      <c r="S16" s="63">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="7">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="F17" s="12">
+        <v>40.331955899344464</v>
+      </c>
+      <c r="G17" s="9">
+        <v>11.045361017187261</v>
+      </c>
+      <c r="H17" s="9">
+        <v>15.779087167410372</v>
+      </c>
+      <c r="I17" s="9">
+        <v>17.464249196572979</v>
+      </c>
+      <c r="J17" s="9">
+        <v>26.034165586355513</v>
+      </c>
+      <c r="K17" s="61"/>
+      <c r="L17" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="M17" s="5">
+        <v>17</v>
+      </c>
+      <c r="N17" s="62">
+        <v>4</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="P17" s="56">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="Q17" s="33">
+        <v>-5.5363321799308009E-2</v>
+      </c>
+      <c r="R17" s="5">
+        <v>14</v>
+      </c>
+      <c r="S17" s="63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7</v>
+      </c>
+      <c r="E18" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="F18" s="12">
+        <v>42.268979957726287</v>
+      </c>
+      <c r="G18" s="9">
+        <v>11.575836902790225</v>
+      </c>
+      <c r="H18" s="9">
+        <v>16.536909861128894</v>
+      </c>
+      <c r="I18" s="9">
+        <v>18.303005217723125</v>
+      </c>
+      <c r="J18" s="9">
+        <v>27.284509239574835</v>
+      </c>
+      <c r="K18" s="61"/>
+      <c r="L18" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" s="5">
+        <v>18</v>
+      </c>
+      <c r="N18" s="62">
+        <v>4</v>
+      </c>
+      <c r="O18" s="5">
+        <v>1.34</v>
+      </c>
+      <c r="P18" s="56">
+        <v>1.296</v>
+      </c>
+      <c r="Q18" s="33">
+        <v>-3.3950617283950643E-2</v>
+      </c>
+      <c r="R18" s="5">
+        <v>14</v>
+      </c>
+      <c r="S18" s="63">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="E19" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="F19" s="12">
+        <v>46.188021535170066</v>
+      </c>
+      <c r="G19" s="9">
+        <v>12.649110640673518</v>
+      </c>
+      <c r="H19" s="9">
+        <v>18.070158058105026</v>
+      </c>
+      <c r="I19" s="9">
+        <v>20</v>
+      </c>
+      <c r="J19" s="9">
+        <v>29.814239699997195</v>
+      </c>
+      <c r="K19" s="61"/>
+      <c r="L19" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" s="5">
+        <v>18</v>
+      </c>
+      <c r="N19" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O19" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="P19" s="56">
+        <v>1.5876000000000001</v>
+      </c>
+      <c r="Q19" s="33">
+        <v>-7.810531620055408E-3</v>
+      </c>
+      <c r="R19" s="5">
+        <v>14</v>
+      </c>
+      <c r="S19" s="63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="E20" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="F20" s="12">
+        <v>48.442405665559868</v>
+      </c>
+      <c r="G20" s="9">
+        <v>13.266499161421599</v>
+      </c>
+      <c r="H20" s="9">
+        <v>18.952141659173712</v>
+      </c>
+      <c r="I20" s="9">
+        <v>20.976176963403031</v>
+      </c>
+      <c r="J20" s="9">
+        <v>31.269438398822864</v>
+      </c>
+      <c r="K20" s="61"/>
+      <c r="L20" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" s="5">
+        <v>19</v>
+      </c>
+      <c r="N20" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O20" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="P20" s="56">
+        <v>1.7689000000000001</v>
+      </c>
+      <c r="Q20" s="33">
+        <v>5.0313754310589232E-3</v>
+      </c>
+      <c r="R20" s="5">
+        <v>15</v>
+      </c>
+      <c r="S20" s="63">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4</v>
+      </c>
+      <c r="F21" s="9">
+        <v>56.920997883030829</v>
+      </c>
+      <c r="G21" s="9">
+        <v>15.588457268119896</v>
+      </c>
+      <c r="H21" s="9">
+        <v>22.269224668742709</v>
+      </c>
+      <c r="I21" s="9">
+        <v>24.647515087732476</v>
+      </c>
+      <c r="J21" s="9">
+        <v>36.742346141747674</v>
+      </c>
+      <c r="K21" s="61"/>
+      <c r="L21" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" s="5">
+        <v>22</v>
+      </c>
+      <c r="N21" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O21" s="5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="P21" s="56">
+        <v>2.3716000000000004</v>
+      </c>
+      <c r="Q21" s="33">
+        <v>-2.4624725923427127E-2</v>
+      </c>
+      <c r="R21" s="5">
+        <v>17</v>
+      </c>
+      <c r="S21" s="63">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A22" s="5">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4</v>
+      </c>
+      <c r="F22" s="9">
+        <v>59.777364723893051</v>
+      </c>
+      <c r="G22" s="9">
+        <v>16.370705543744901</v>
+      </c>
+      <c r="H22" s="9">
+        <v>23.386722205349859</v>
+      </c>
+      <c r="I22" s="9">
+        <v>25.88435821108957</v>
+      </c>
+      <c r="J22" s="9">
+        <v>38.586123009300749</v>
+      </c>
+      <c r="K22" s="61"/>
+      <c r="L22" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="M22" s="5">
+        <v>23</v>
+      </c>
+      <c r="N22" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O22" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="P22" s="56">
+        <v>2.5921000000000003</v>
+      </c>
+      <c r="Q22" s="33">
+        <v>-3.3910728752748684E-2</v>
+      </c>
+      <c r="R22" s="5">
+        <v>18</v>
+      </c>
+      <c r="S22" s="63">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9">
+        <v>79.414524280301947</v>
+      </c>
+      <c r="G23" s="9">
+        <v>21.748563170931547</v>
+      </c>
+      <c r="H23" s="9">
+        <v>31.069375958473636</v>
+      </c>
+      <c r="I23" s="9">
+        <v>34.387497728098801</v>
+      </c>
+      <c r="J23" s="9">
+        <v>51.26185499743233</v>
+      </c>
+      <c r="K23" s="61"/>
+      <c r="L23" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" s="5">
+        <v>31</v>
+      </c>
+      <c r="N23" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O23" s="5">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="P23" s="56">
+        <v>4.7089000000000008</v>
+      </c>
+      <c r="Q23" s="33">
+        <v>-4.4808766378559052E-3</v>
+      </c>
+      <c r="R23" s="5">
+        <v>23</v>
+      </c>
+      <c r="S23" s="63">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" s="16">
+        <v>2</v>
+      </c>
+      <c r="B24" s="16">
+        <v>5.21</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1.8</v>
+      </c>
+      <c r="E24" s="18">
+        <v>2</v>
+      </c>
+      <c r="F24" s="19">
+        <v>83.346665600170638</v>
+      </c>
+      <c r="G24" s="9">
+        <v>22.825424421026653</v>
+      </c>
+      <c r="H24" s="9">
+        <v>32.607749172895218</v>
+      </c>
+      <c r="I24" s="9">
+        <v>36.090164865237178</v>
+      </c>
+      <c r="J24" s="9">
+        <v>53.800041305229911</v>
+      </c>
+      <c r="K24" s="61"/>
+      <c r="L24" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" s="16">
+        <v>32</v>
+      </c>
+      <c r="N24" s="5">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="O24" s="5">
+        <v>5.21</v>
+      </c>
+      <c r="P24" s="56">
+        <v>5.0176000000000007</v>
+      </c>
+      <c r="Q24" s="33">
+        <v>-3.8345025510203926E-2</v>
+      </c>
+      <c r="R24" s="5">
+        <v>24</v>
+      </c>
+      <c r="S24" s="63">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>33</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="63">
+        <v>34.333333333333336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AFBBB3-1038-47EE-B098-CB95D7364046}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4815,7 +7437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB19532-201D-4964-AA8F-E4D7A92471E4}">
   <dimension ref="A1:O27"/>
   <sheetViews>
